--- a/tools/luban/Datas/Equipment.xlsx
+++ b/tools/luban/Datas/Equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5315D5-4E15-4663-98D2-9429D0D5BE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099832E0-1307-4267-A4BB-844B57BD7297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="190">
   <si>
     <t>##var</t>
   </si>
@@ -654,10 +654,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获得额外闪电伤害，值为物理伤害的 3%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>雷电</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -666,48 +662,68 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获得额外毒素伤害，值为物理伤害的 3%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>火焰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获得额外火焰伤害，值为物理伤害的 3%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>冰霜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获得额外冰霜伤害，值为物理伤害的 3%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得额外冰霜抗性，值为物理抗性的 3%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得额外火焰抗性，值为物理抗性的 3%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得额外雷电抗性，值为物理抗性的 3%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得额外毒素抗性，值为物理抗性的 3%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>物理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>物理伤害 +{s}%</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外毒素抗性，值为物理抗性的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外闪电伤害，值为物理伤害的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外毒素伤害，值为物理伤害的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外火焰伤害，值为物理伤害的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外冰霜伤害，值为物理伤害的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外冰霜抗性，值为物理抗性的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外火焰抗性，值为物理抗性的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外雷电抗性，值为物理抗性的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外闪电伤害，值为血量的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外毒素伤害，值为血量的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外火焰伤害，值为血量的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外冰霜伤害，值为血量的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外冰霜抗性，值为血量的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外火焰抗性，值为血量的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外雷电抗性，值为血量的 {s}%。</t>
+  </si>
+  <si>
+    <t>获得额外毒素抗性，值为血量的 {s}%。</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
@@ -2656,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E3622-AA95-4903-A6BB-C9702E79A1C7}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2793,10 +2809,10 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E7" s="3">
         <v>10003</v>
@@ -2814,10 +2830,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E8" s="3">
         <v>10004</v>
@@ -2835,10 +2851,10 @@
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E9" s="3">
         <v>10005</v>
@@ -2856,10 +2872,10 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E10" s="3">
         <v>10006</v>
@@ -2877,10 +2893,10 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E11" s="3">
         <v>10007</v>
@@ -2898,10 +2914,10 @@
         <v>1008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E12" s="3">
         <v>10008</v>
@@ -2919,10 +2935,10 @@
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E13" s="3">
         <v>10009</v>
@@ -2940,10 +2956,10 @@
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="E14" s="3">
         <v>10010</v>
@@ -2961,10 +2977,10 @@
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E15" s="3">
         <v>10011</v>
@@ -2978,75 +2994,171 @@
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10012</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10013</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10014</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10015</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="3">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10016</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="3">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10017</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="3">
+        <v>1018</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10018</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="3">
+        <v>1019</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10019</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
@@ -3397,7 +3509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A5F27B-6688-445C-9A2A-E5C7416A2AAD}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/tools/luban/Datas/Equipment.xlsx
+++ b/tools/luban/Datas/Equipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099832E0-1307-4267-A4BB-844B57BD7297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFDF8DC-E5AD-4E5F-9E0C-51CADDCA1F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
@@ -1129,9 +1129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1508,7 +1508,7 @@
         <v>1011</v>
       </c>
       <c r="F15" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>1012</v>
       </c>
       <c r="F16" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -1558,7 +1558,7 @@
         <v>1013</v>
       </c>
       <c r="F17" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>1014</v>
       </c>
       <c r="F18" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -1608,7 +1608,7 @@
         <v>1015</v>
       </c>
       <c r="F19" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>1016</v>
       </c>
       <c r="F20" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>1017</v>
       </c>
       <c r="F21" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>1018</v>
       </c>
       <c r="F22" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>1019</v>
       </c>
       <c r="F23" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -1733,7 +1733,7 @@
         <v>1020</v>
       </c>
       <c r="F24" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>1026</v>
       </c>
       <c r="F30" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G30" s="3">
         <v>10</v>
@@ -2058,10 +2058,10 @@
         <v>1033</v>
       </c>
       <c r="F37" s="3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G37" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2208,7 +2208,7 @@
         <v>1039</v>
       </c>
       <c r="F43" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>1040</v>
       </c>
       <c r="F44" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -2258,7 +2258,7 @@
         <v>1041</v>
       </c>
       <c r="F45" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -2283,7 +2283,7 @@
         <v>1042</v>
       </c>
       <c r="F46" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>1043</v>
       </c>
       <c r="F47" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
@@ -2333,7 +2333,7 @@
         <v>1044</v>
       </c>
       <c r="F48" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -2358,7 +2358,7 @@
         <v>1045</v>
       </c>
       <c r="F49" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -2383,7 +2383,7 @@
         <v>1046</v>
       </c>
       <c r="F50" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G50" s="3">
         <v>0.2</v>
@@ -2408,7 +2408,7 @@
         <v>1047</v>
       </c>
       <c r="F51" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -2433,7 +2433,7 @@
         <v>1048</v>
       </c>
       <c r="F52" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -2458,7 +2458,7 @@
         <v>1049</v>
       </c>
       <c r="F53" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
@@ -2483,7 +2483,7 @@
         <v>1050</v>
       </c>
       <c r="F54" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>1051</v>
       </c>
       <c r="F55" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>1052</v>
       </c>
       <c r="F56" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -2558,10 +2558,10 @@
         <v>1053</v>
       </c>
       <c r="F57" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G57" s="3">
         <v>0.1</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -2583,7 +2583,7 @@
         <v>1054</v>
       </c>
       <c r="F58" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
@@ -2608,7 +2608,7 @@
         <v>1055</v>
       </c>
       <c r="F59" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
@@ -2633,7 +2633,7 @@
         <v>1056</v>
       </c>
       <c r="F60" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -2672,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E3622-AA95-4903-A6BB-C9702E79A1C7}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/tools/luban/Datas/Equipment.xlsx
+++ b/tools/luban/Datas/Equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFDF8DC-E5AD-4E5F-9E0C-51CADDCA1F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC0CBCD-2885-44C5-AB73-19B84713751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="221">
   <si>
     <t>##var</t>
   </si>
@@ -724,6 +724,120 @@
   </si>
   <si>
     <t>获得额外毒素抗性，值为血量的 {s}%。</t>
+  </si>
+  <si>
+    <t>三元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素抗性 +{s}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素抗性 +{s}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素伤害 +{s}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素伤害 +{s}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(100 - 480)防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(1 - 100)防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(800 - 1000)防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(100 - 150)最大生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(200 - 300)最大生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(80 - 100)最大生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)火焰抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)闪电抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)毒素抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)冰霜抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)火焰伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)闪电伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)毒素伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)冰霜伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{s}防御</t>
+  </si>
+  <si>
+    <t>+{s}最大生命</t>
+  </si>
+  <si>
+    <t>+{s%}火焰抗性</t>
+  </si>
+  <si>
+    <t>+{s%}闪电抗性</t>
+  </si>
+  <si>
+    <t>+{s%}毒素抗性</t>
+  </si>
+  <si>
+    <t>+{s%}冰霜抗性</t>
+  </si>
+  <si>
+    <t>+{s%}火焰伤害</t>
+  </si>
+  <si>
+    <t>+{s%}闪电伤害</t>
+  </si>
+  <si>
+    <t>+{s%}毒素伤害</t>
+  </si>
+  <si>
+    <t>+{s%}冰霜伤害</t>
+  </si>
+  <si>
+    <t>最大生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -830,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -847,6 +961,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1129,9 +1247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43:F60"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2672,23 +2790,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E3622-AA95-4903-A6BB-C9702E79A1C7}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.375" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2709,7 +2827,7 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2730,7 +2848,7 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2"/>
@@ -2741,7 +2859,7 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2762,7 +2880,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
@@ -2783,7 +2901,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
@@ -2804,7 +2922,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
@@ -2825,7 +2943,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
@@ -2846,7 +2964,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3">
         <v>1005</v>
       </c>
@@ -2867,7 +2985,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3">
         <v>1006</v>
       </c>
@@ -2888,7 +3006,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3">
         <v>1007</v>
       </c>
@@ -2909,7 +3027,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3">
         <v>1008</v>
       </c>
@@ -2930,7 +3048,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3">
         <v>1009</v>
       </c>
@@ -2951,7 +3069,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3">
         <v>1010</v>
       </c>
@@ -2972,7 +3090,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3">
         <v>1011</v>
       </c>
@@ -2993,7 +3111,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3">
         <v>1012</v>
       </c>
@@ -3014,7 +3132,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3">
         <v>1013</v>
       </c>
@@ -3035,7 +3153,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3">
         <v>1014</v>
       </c>
@@ -3056,7 +3174,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3">
         <v>1015</v>
       </c>
@@ -3077,7 +3195,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3">
         <v>1016</v>
       </c>
@@ -3098,7 +3216,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3">
         <v>1017</v>
       </c>
@@ -3119,7 +3237,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3">
         <v>1018</v>
       </c>
@@ -3140,7 +3258,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3">
         <v>1019</v>
       </c>
@@ -3161,169 +3279,413 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10020</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="3">
+        <v>1021</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10021</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="3">
+        <v>1022</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10022</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="3">
+        <v>1023</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10023</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1024</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10024</v>
+      </c>
+      <c r="F28" s="3">
+        <v>100</v>
+      </c>
+      <c r="G28" s="3">
+        <v>480</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1025</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10025</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1026</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10026</v>
+      </c>
+      <c r="F30" s="3">
+        <v>800</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="A31" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1027</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="3">
+        <v>10027</v>
+      </c>
+      <c r="F31" s="3">
+        <v>100</v>
+      </c>
+      <c r="G31" s="3">
+        <v>150</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="A32" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1028</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10028</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1029</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10029</v>
+      </c>
+      <c r="F33" s="3">
+        <v>80</v>
+      </c>
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="A34" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1030</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" s="3">
+        <v>10030</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="A35" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1031</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10031</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="A36" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1032</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10032</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="A37" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1033</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10033</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="A38" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1034</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10034</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="A39" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1035</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="3">
+        <v>10035</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="A40" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1036</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10036</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="A41" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1037</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10037</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3332,7 +3694,7 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3341,7 +3703,7 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3350,7 +3712,7 @@
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3359,7 +3721,7 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3368,7 +3730,7 @@
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3377,7 +3739,7 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3386,7 +3748,7 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3395,7 +3757,7 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -3404,7 +3766,7 @@
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3413,7 +3775,7 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -3422,7 +3784,7 @@
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -3431,7 +3793,7 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3440,7 +3802,7 @@
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -3449,7 +3811,7 @@
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3458,7 +3820,7 @@
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -3467,7 +3829,7 @@
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -3476,7 +3838,7 @@
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3485,7 +3847,7 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -3509,7 +3871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A5F27B-6688-445C-9A2A-E5C7416A2AAD}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/tools/luban/Datas/Equipment.xlsx
+++ b/tools/luban/Datas/Equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC0CBCD-2885-44C5-AB73-19B84713751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F35F96B-F1DF-408A-999D-A9A9C0D6C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
@@ -949,6 +949,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,10 +965,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1248,30 +1248,30 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,16 +1287,16 @@
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1312,16 +1312,16 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1329,14 +1329,14 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1352,16 +1352,16 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -1386,7 +1386,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -1411,7 +1411,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1003</v>
@@ -1436,7 +1436,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1004</v>
@@ -1461,7 +1461,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>1005</v>
@@ -1486,7 +1486,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>1006</v>
@@ -1511,7 +1511,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>1007</v>
@@ -1536,7 +1536,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>1008</v>
@@ -1561,7 +1561,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>1009</v>
@@ -1586,7 +1586,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>1010</v>
@@ -1611,7 +1611,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1011</v>
@@ -1636,7 +1636,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>1012</v>
@@ -1661,7 +1661,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>1013</v>
@@ -1686,7 +1686,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>1014</v>
@@ -1711,7 +1711,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>1015</v>
@@ -1736,7 +1736,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>1016</v>
@@ -1761,7 +1761,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>1017</v>
@@ -1786,7 +1786,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>1018</v>
@@ -1811,7 +1811,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>1019</v>
@@ -1836,7 +1836,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
         <v>1020</v>
@@ -1861,7 +1861,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>1021</v>
@@ -1886,7 +1886,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>1022</v>
@@ -1911,7 +1911,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>1023</v>
@@ -1936,7 +1936,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3">
         <v>1024</v>
@@ -1961,7 +1961,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>1025</v>
@@ -1986,7 +1986,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3">
         <v>1026</v>
@@ -2011,7 +2011,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>1027</v>
@@ -2036,7 +2036,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3">
         <v>1028</v>
@@ -2061,7 +2061,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3">
         <v>1029</v>
@@ -2086,7 +2086,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3">
         <v>1030</v>
@@ -2111,7 +2111,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3">
         <v>1031</v>
@@ -2136,7 +2136,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3">
         <v>1032</v>
@@ -2161,7 +2161,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3">
         <v>1033</v>
@@ -2186,7 +2186,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3">
         <v>1034</v>
@@ -2211,7 +2211,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3">
         <v>1035</v>
@@ -2236,7 +2236,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3">
         <v>1036</v>
@@ -2261,7 +2261,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3">
         <v>1037</v>
@@ -2286,7 +2286,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3">
         <v>1038</v>
@@ -2311,7 +2311,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3">
         <v>1039</v>
@@ -2336,7 +2336,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
         <v>1040</v>
@@ -2361,7 +2361,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3">
         <v>1041</v>
@@ -2386,7 +2386,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3">
         <v>1042</v>
@@ -2411,7 +2411,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3">
         <v>1043</v>
@@ -2436,7 +2436,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3">
         <v>1044</v>
@@ -2461,7 +2461,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3">
         <v>1045</v>
@@ -2486,7 +2486,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3">
         <v>1046</v>
@@ -2511,7 +2511,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>1047</v>
@@ -2536,7 +2536,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3">
         <v>1048</v>
@@ -2561,7 +2561,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3">
         <v>1049</v>
@@ -2586,7 +2586,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3">
         <v>1050</v>
@@ -2611,7 +2611,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3">
         <v>1051</v>
@@ -2636,7 +2636,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3">
         <v>1052</v>
@@ -2661,7 +2661,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3">
         <v>1053</v>
@@ -2686,7 +2686,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3">
         <v>1054</v>
@@ -2711,7 +2711,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3">
         <v>1055</v>
@@ -2736,7 +2736,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3">
         <v>1056</v>
@@ -2761,7 +2761,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2790,23 +2790,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E3622-AA95-4903-A6BB-C9702E79A1C7}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:G41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.375" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2821,13 +2821,13 @@
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2842,24 +2842,24 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2874,13 +2874,13 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
@@ -2900,8 +2900,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
@@ -2921,8 +2921,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A7" s="6"/>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
@@ -2942,8 +2942,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
@@ -2963,8 +2963,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
       <c r="B9" s="3">
         <v>1005</v>
       </c>
@@ -2984,8 +2984,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
       <c r="B10" s="3">
         <v>1006</v>
       </c>
@@ -3005,8 +3005,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A11" s="6"/>
       <c r="B11" s="3">
         <v>1007</v>
       </c>
@@ -3026,8 +3026,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A12" s="6"/>
       <c r="B12" s="3">
         <v>1008</v>
       </c>
@@ -3047,8 +3047,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A13" s="6"/>
       <c r="B13" s="3">
         <v>1009</v>
       </c>
@@ -3068,8 +3068,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A14" s="6"/>
       <c r="B14" s="3">
         <v>1010</v>
       </c>
@@ -3089,8 +3089,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A15" s="6"/>
       <c r="B15" s="3">
         <v>1011</v>
       </c>
@@ -3110,8 +3110,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A16" s="6"/>
       <c r="B16" s="3">
         <v>1012</v>
       </c>
@@ -3131,8 +3131,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A17" s="6"/>
       <c r="B17" s="3">
         <v>1013</v>
       </c>
@@ -3152,8 +3152,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A18" s="6"/>
       <c r="B18" s="3">
         <v>1014</v>
       </c>
@@ -3173,8 +3173,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A19" s="6"/>
       <c r="B19" s="3">
         <v>1015</v>
       </c>
@@ -3194,8 +3194,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A20" s="6"/>
       <c r="B20" s="3">
         <v>1016</v>
       </c>
@@ -3215,8 +3215,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A21" s="6"/>
       <c r="B21" s="3">
         <v>1017</v>
       </c>
@@ -3236,8 +3236,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A22" s="6"/>
       <c r="B22" s="3">
         <v>1018</v>
       </c>
@@ -3257,8 +3257,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A23" s="6"/>
       <c r="B23" s="3">
         <v>1019</v>
       </c>
@@ -3278,8 +3278,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A24" s="6"/>
       <c r="B24" s="3">
         <v>1020</v>
       </c>
@@ -3299,8 +3299,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A25" s="6"/>
       <c r="B25" s="3">
         <v>1021</v>
       </c>
@@ -3320,8 +3320,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A26" s="6"/>
       <c r="B26" s="3">
         <v>1022</v>
       </c>
@@ -3341,8 +3341,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A27" s="6"/>
       <c r="B27" s="3">
         <v>1023</v>
       </c>
@@ -3362,8 +3362,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B28" s="3">
@@ -3372,7 +3372,7 @@
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="6" t="s">
         <v>209</v>
       </c>
       <c r="E28" s="3">
@@ -3385,8 +3385,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
         <v>196</v>
       </c>
       <c r="B29" s="3">
@@ -3395,7 +3395,7 @@
       <c r="C29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="6" t="s">
         <v>209</v>
       </c>
       <c r="E29" s="3">
@@ -3408,8 +3408,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
         <v>197</v>
       </c>
       <c r="B30" s="3">
@@ -3418,7 +3418,7 @@
       <c r="C30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="6" t="s">
         <v>209</v>
       </c>
       <c r="E30" s="3">
@@ -3431,8 +3431,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A31" s="6" t="s">
         <v>198</v>
       </c>
       <c r="B31" s="3">
@@ -3441,7 +3441,7 @@
       <c r="C31" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="6" t="s">
         <v>210</v>
       </c>
       <c r="E31" s="3">
@@ -3454,8 +3454,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="3">
@@ -3464,7 +3464,7 @@
       <c r="C32" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="6" t="s">
         <v>210</v>
       </c>
       <c r="E32" s="3">
@@ -3477,8 +3477,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A33" s="6" t="s">
         <v>200</v>
       </c>
       <c r="B33" s="3">
@@ -3487,7 +3487,7 @@
       <c r="C33" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="6" t="s">
         <v>210</v>
       </c>
       <c r="E33" s="3">
@@ -3500,8 +3500,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
         <v>201</v>
       </c>
       <c r="B34" s="3">
@@ -3510,7 +3510,7 @@
       <c r="C34" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="6" t="s">
         <v>211</v>
       </c>
       <c r="E34" s="3">
@@ -3523,8 +3523,8 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A35" s="6" t="s">
         <v>202</v>
       </c>
       <c r="B35" s="3">
@@ -3533,7 +3533,7 @@
       <c r="C35" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="6" t="s">
         <v>212</v>
       </c>
       <c r="E35" s="3">
@@ -3546,8 +3546,8 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A36" s="6" t="s">
         <v>203</v>
       </c>
       <c r="B36" s="3">
@@ -3556,7 +3556,7 @@
       <c r="C36" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="6" t="s">
         <v>213</v>
       </c>
       <c r="E36" s="3">
@@ -3569,8 +3569,8 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
         <v>204</v>
       </c>
       <c r="B37" s="3">
@@ -3579,7 +3579,7 @@
       <c r="C37" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="6" t="s">
         <v>214</v>
       </c>
       <c r="E37" s="3">
@@ -3592,8 +3592,8 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
         <v>205</v>
       </c>
       <c r="B38" s="3">
@@ -3602,7 +3602,7 @@
       <c r="C38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="6" t="s">
         <v>215</v>
       </c>
       <c r="E38" s="3">
@@ -3615,8 +3615,8 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A39" s="6" t="s">
         <v>206</v>
       </c>
       <c r="B39" s="3">
@@ -3625,7 +3625,7 @@
       <c r="C39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="6" t="s">
         <v>216</v>
       </c>
       <c r="E39" s="3">
@@ -3638,8 +3638,8 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A40" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B40" s="3">
@@ -3648,7 +3648,7 @@
       <c r="C40" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="6" t="s">
         <v>217</v>
       </c>
       <c r="E40" s="3">
@@ -3661,8 +3661,8 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A41" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B41" s="3">
@@ -3671,7 +3671,7 @@
       <c r="C41" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="6" t="s">
         <v>218</v>
       </c>
       <c r="E41" s="3">
@@ -3684,8 +3684,8 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A42" s="6"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3693,8 +3693,8 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A43" s="6"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3702,8 +3702,8 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A44" s="6"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3711,8 +3711,8 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A45" s="6"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3720,8 +3720,8 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A46" s="6"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3729,8 +3729,8 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="10"/>
+    <row r="47" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A47" s="6"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3738,8 +3738,8 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
+    <row r="48" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A48" s="6"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3747,8 +3747,8 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
+    <row r="49" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A49" s="6"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3756,8 +3756,8 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A50" s="6"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -3765,8 +3765,8 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="10"/>
+    <row r="51" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A51" s="6"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3774,8 +3774,8 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
+    <row r="52" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A52" s="6"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -3783,8 +3783,8 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="10"/>
+    <row r="53" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A53" s="6"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -3792,8 +3792,8 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
+    <row r="54" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A54" s="6"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3801,8 +3801,8 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A55" s="6"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -3810,8 +3810,8 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A56" s="6"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3819,8 +3819,8 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A57" s="6"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -3828,8 +3828,8 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A58" s="6"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -3837,8 +3837,8 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
+    <row r="59" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A59" s="6"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3846,8 +3846,8 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A60" s="6"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -3875,9 +3875,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1003</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1004</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>1005</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>1006</v>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>1007</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>1008</v>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>1009</v>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>1010</v>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1011</v>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>1012</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>1013</v>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>1014</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>1015</v>
@@ -4077,247 +4077,247 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4337,9 +4337,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4355,12 +4355,12 @@
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4376,12 +4376,12 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4389,10 +4389,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4408,12 +4408,12 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -4434,7 +4434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -4475,14 +4475,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
